--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078AD0C1-2703-4F0D-98EC-E75EF8C3D36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15B39C2-4C6E-4CF2-893B-24D6F3DAE7CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -86,10 +86,26 @@
     <t>Map2</t>
   </si>
   <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Router1</t>
+  </si>
+  <si>
+    <t>Router2</t>
+  </si>
+  <si>
+    <t>Router3</t>
+  </si>
+  <si>
     <t>Robot</t>
   </si>
   <si>
     <t>Robot01</t>
+  </si>
+  <si>
+    <t>Map1_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -108,6 +124,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -115,6 +132,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -470,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H11"/>
+  <dimension ref="C3:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -622,7 +640,9 @@
       <c r="G9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5">
+        <v>10005</v>
+      </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
@@ -640,7 +660,9 @@
       <c r="G10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <v>10006</v>
+      </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
@@ -658,7 +680,89 @@
       <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="5">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="5">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="5">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="5">
+        <v>10011</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -671,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -750,22 +854,22 @@
         <v>200</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>